--- a/data/trans_bre/P31_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P31_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,72</t>
+          <t>-8,28</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>23,19</t>
+          <t>17,71</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,02</t>
+          <t>8,51</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>27,45%</t>
+          <t>13,21</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>203,11%</t>
+          <t>-54,45%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>124,64%</t>
+          <t>294,75%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>94,8%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>170,45%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 13,48</t>
+          <t>-25,44; 5,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,74; 37,32</t>
+          <t>3,85; 32,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 20,0</t>
+          <t>-11,59; 23,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-53,9; 344,95</t>
+          <t>-0,4; 29,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>35,75; 688,64</t>
+          <t>-100,0; 211,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-30,01; 849,9</t>
+          <t>-14,13; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-81,02; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-31,33; 1075,19</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-10,55</t>
+          <t>-16,11</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,42</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,76</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-37,3%</t>
+          <t>13,14</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>25,95%</t>
+          <t>-49,19%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>47,98%</t>
+          <t>-0,61%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-9,06%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>137,64%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-32,49; 3,1</t>
+          <t>-46,65; 4,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,94; 20,55</t>
+          <t>-29,37; 19,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-18,61; 25,99</t>
+          <t>-38,93; 19,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-76,51; 17,13</t>
+          <t>-1,63; 28,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-34,73; 139,07</t>
+          <t>-84,16; 21,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-49,47; 328,01</t>
+          <t>-64,9; 130,75</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-78,46; 422,77</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-21,96; 799,68</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>5,55</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>16,8</t>
+          <t>23,06</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,06</t>
+          <t>9,24</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>5,67</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>86,23%</t>
+          <t>30,13%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>67,98%</t>
+          <t>113,42%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>39,76%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>28,34%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-18,98; 13,53</t>
+          <t>-8,13; 17,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,57; 27,19</t>
+          <t>8,51; 37,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,35; 23,46</t>
+          <t>-5,94; 22,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-49,55; 81,26</t>
+          <t>-8,42; 18,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,56; 218,5</t>
+          <t>-31,23; 163,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,99; 182,21</t>
+          <t>27,68; 326,74</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-20,85; 148,61</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-30,92; 159,06</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,12</t>
+          <t>16,06</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,73</t>
+          <t>8,16</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,78</t>
+          <t>12,3</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>140,12%</t>
+          <t>10,4</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>14,47%</t>
+          <t>201,11%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>25,88%</t>
+          <t>41,55%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>72,49%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>75,36%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,26; 19,89</t>
+          <t>4,78; 26,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 13,18</t>
+          <t>-3,55; 21,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 16,41</t>
+          <t>-0,24; 24,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,02; 364,15</t>
+          <t>-1,44; 21,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-21,75; 64,67</t>
+          <t>24,22; 646,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-19,43; 99,45</t>
+          <t>-16,33; 171,21</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-5,48; 232,36</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-8,99; 271,03</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,27</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,85</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>16,95</t>
+          <t>11,55</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>34,89%</t>
+          <t>4,54</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>22,51%</t>
+          <t>12,3%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>87,47%</t>
+          <t>12,17%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>63,42%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>28,93%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 16,08</t>
+          <t>-11,4; 16,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 16,93</t>
+          <t>-12,43; 17,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,32; 28,19</t>
+          <t>-3,08; 28,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-24,27; 169,79</t>
+          <t>-8,18; 19,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-24,96; 104,66</t>
+          <t>-58,75; 174,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,86; 212,07</t>
+          <t>-44,21; 125,91</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-14,67; 230,68</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-41,09; 204,97</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>24,61</t>
+          <t>24,68</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>13,07</t>
+          <t>9,64</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>15,44</t>
+          <t>14,61</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>201,81%</t>
+          <t>19,74</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>72,0%</t>
+          <t>163,06%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>94,31%</t>
+          <t>62,64%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>83,28%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>138,4%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,2; 37,65</t>
+          <t>6,17; 42,77</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 28,11</t>
+          <t>-7,63; 26,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 30,33</t>
+          <t>-4,23; 36,56</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>63,6; 570,1</t>
+          <t>-1,16; 46,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 237,85</t>
+          <t>13,09; 627,87</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 284,85</t>
+          <t>-41,44; 316,91</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-24,04; 422,06</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-22,3; 672,68</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,6</t>
+          <t>4,35</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>11,33</t>
+          <t>11,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>11,78</t>
+          <t>9,19</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>32,8%</t>
+          <t>11,81</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>55,42%</t>
+          <t>24,73%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>67,67%</t>
+          <t>56,2%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>49,8%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>87,8%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 11,14</t>
+          <t>-3,8; 10,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,91; 16,61</t>
+          <t>2,66; 17,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,47; 16,78</t>
+          <t>-0,25; 17,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 82,74</t>
+          <t>5,89; 19,46</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>24,72; 96,89</t>
+          <t>-17,37; 79,35</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>20,21; 114,98</t>
+          <t>7,49; 111,24</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-7,28; 115,34</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>33,53; 184,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P31_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P31_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,195 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-8,28</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>17,71</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>8,51</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>13,21</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-54,45%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>294,75%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>94,8%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>170,45%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-7.01602192137086</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>20.88056116668592</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>9.470354805099348</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>12.19511951546857</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.5074519420454392</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>3.290754218182444</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>1.179788955726882</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.382685531011374</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-25,44; 5,09</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>3,85; 32,29</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-11,59; 23,49</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-0,4; 29,18</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 211,91</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-14,13; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-81,02; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-31,33; 1075,19</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-23.59288324368597</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>6.452976170089404</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-8.401327016135927</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-3.767286004301436</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.08231786438878287</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.7846651141303963</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.4423377608581336</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>5.709783035555996</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>38.01455444064397</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>24.19754063370925</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>26.37688927966197</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>2.22150371089272</v>
+      </c>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="n">
+        <v>9.753055644387823</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-16,11</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,18</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-2,19</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>13,14</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-49,19%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-0,61%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-9,06%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>137,64%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-46,65; 4,07</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-29,37; 19,6</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-38,93; 19,75</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-1,63; 28,71</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-84,16; 21,43</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-64,9; 130,75</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-78,46; 422,77</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-21,96; 799,68</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-12.17248488179904</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.450973900218482</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-1.258039971408373</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>13.77302019590018</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.4330316447683338</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.01539387711668872</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.05454203734936473</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>1.538286277435984</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>5,55</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>23,06</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>9,24</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>5,67</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>30,13%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>113,42%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>39,76%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>28,34%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-42.08685130450935</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-27.18872661574406</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-36.11070690596571</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.4202699218749635</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.8377657389672762</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.5922066688743638</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.7715344228746752</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.168255085369722</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-8,13; 17,5</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>8,51; 37,64</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-5,94; 22,18</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-8,42; 18,54</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-31,23; 163,33</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>27,68; 326,74</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-20,85; 148,61</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-30,92; 159,06</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>5.897715344687741</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>18.43919400532545</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>19.70843734702167</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>29.23181333121702</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.375569142257749</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.185512193765056</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>3.885952962852229</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>9.166034718942534</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +823,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>16,06</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>8,16</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>12,3</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>10,4</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>201,11%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>41,55%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>72,49%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>75,36%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>5.120064239395694</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>21.9928917667398</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>10.66782101694564</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>4.413975110940601</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.261123870709168</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>1.046053439693828</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.4923018986642737</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.2061843585767666</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>4,78; 26,02</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-3,55; 21,2</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,24; 24,4</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-1,44; 21,43</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>24,22; 646,63</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-16,33; 171,21</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-5,48; 232,36</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-8,99; 271,03</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-9.099894679578467</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>7.144050151942494</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-5.71638773421162</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-11.04558653945563</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.3494594839308828</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>0.2287017915624131</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.2061573752557182</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.3626560825608093</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>18.12076911821911</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>37.49946176036011</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>23.14774993287282</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>16.92813335089436</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>1.541005146583402</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>3.459677833506193</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>1.58470989849919</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.307802998835169</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1,87</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,66</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>11,55</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>4,54</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>12,3%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>12,17%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>63,42%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>28,93%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-11,4; 16,93</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-12,43; 17,8</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-3,08; 28,05</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-8,18; 19,31</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-58,75; 174,32</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-44,21; 125,91</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-14,67; 230,68</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-41,09; 204,97</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>14.30459492709991</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>5.963976499324336</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>11.45050650651447</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>11.17509728259299</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>1.676975930628812</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.280728187388331</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.6570212497267681</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.7984879960533962</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>24,68</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>9,64</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>14,61</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>19,74</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>163,06%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>62,64%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>83,28%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>138,4%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>2.707966865150425</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-6.420389399642948</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-1.062387291444179</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.682406243487618</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.1273125828841539</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.2399795984725099</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.09648217392761865</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.1229135064006725</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>6,17; 42,77</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-7,63; 26,59</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-4,23; 36,56</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-1,16; 46,66</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>13,09; 627,87</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-41,44; 316,91</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-24,04; 422,06</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-22,3; 672,68</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>24.23736968801477</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>19.39968902838099</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>24.00567478391965</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>22.52011177159752</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>5.685225796650156</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.550653006588858</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>2.232043834676049</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>2.86372349936508</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +1023,297 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>4,35</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>11,0</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>9,19</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>11,81</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>24,73%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>56,2%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>49,8%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>87,8%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>0.1587477136300169</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>4.235449121896659</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>12.46208388628957</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>6.050123948452823</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0.009789728825671567</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>0.1898605053221627</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>0.6824860314277992</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>0.3864583590592717</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-3,8; 10,54</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>2,66; 17,46</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-0,25; 17,28</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>5,89; 19,46</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-17,37; 79,35</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>7,49; 111,24</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-7,28; 115,34</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>33,53; 184,89</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-14.03238577795717</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-11.35601292565362</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-2.234286074057454</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-8.118251204166919</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.6361433815556844</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>-0.4123373687719732</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>-0.08676651348206739</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>-0.4344401403977131</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>14.83550108774599</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>20.14817651203981</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>29.04494627449113</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>20.8867799394711</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>1.48260144702526</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>1.208690491213113</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>2.449709281872063</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>1.982423286465402</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>25.31025851651261</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>12.7321993057378</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>18.85676285476967</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>22.14914803445809</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>1.712012502878645</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>0.7992599981484317</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>1.09083759973876</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>1.619118422348179</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>7.084870459269939</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-5.799813788163304</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-1.11158660717084</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>2.625832470474523</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>0.1634486876003784</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-0.3314318696007196</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <v>-0.0971521410263035</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <v>-0.1071014666233706</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>44.09617364552296</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>32.72057985321796</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>41.60173977443944</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>44.71035886908902</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>6.332188046707574</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>4.282203923326697</v>
+      </c>
+      <c r="I21" s="6" t="n">
+        <v>5.193452462058052</v>
+      </c>
+      <c r="J21" s="6" t="n">
+        <v>6.734607850685205</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>4.29815621411603</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>11.35523594617646</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>10.21224518850195</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>12.31244208352712</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.2506675140142797</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.5628172489673831</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>0.5714541475626583</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>0.9018023314851942</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-3.882816077093606</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>4.782445130520132</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>1.464917532014212</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>5.759238945488091</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.1868568026097047</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>0.1733904211286511</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>0.01349155926141375</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>0.3291595392224764</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>10.61891316148139</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>18.49733466237612</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>18.28041441520801</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>20.07385247304963</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.7937428100586172</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>1.168883238193511</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>1.272887018986779</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>1.813032210611737</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1321,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
